--- a/vedois/alunos (importar)/Pós Graduação_4.xlsx
+++ b/vedois/alunos (importar)/Pós Graduação_4.xlsx
@@ -431,7 +431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Pós Graduação 0 4</t>
+          <t>Pós Graduação 4</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Segunda M 07:00 - 07:55</t>
+          <t>Quinta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Segunda M 07:55 - 08:50</t>
+          <t>Quinta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Segunda M 08:50 - 09:45</t>
+          <t>Quinta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Segunda M 10:10 - 11:00</t>
+          <t>Quinta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
